--- a/pred_ohlcv/54_21/2019-10-28 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96.68819679000006</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-97.03759679000007</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-89.89309679000006</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-85.80899679000005</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-90.80899679000005</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-71.11999679000004</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-70.98179679000005</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-65.43729679000005</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11.52499679000004</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-12.31259679000004</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12.56219679000004</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-12.30439679000004</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-12.44379679000004</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-24.60529679000004</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24.46319679000004</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-25.01089679000004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-24.50089679000004</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11.51893626999995</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11.19753626999995</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11.20823626999995</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14.79081572999995</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>159.09471851</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>159.09471851</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>94.14549110999992</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>92.99079440999992</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>92.75079440999993</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>92.85079440999992</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>92.24039440999992</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-96.68819679000006</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-97.03759679000007</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-100.7210967900001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-90.15519679000006</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-89.89309679000006</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-85.80899679000005</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-90.80899679000005</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-91.30779679000005</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-93.22329679000005</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-97.51079679000004</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-95.41589679000005</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-71.11999679000004</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-70.98179679000005</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-65.43729679000005</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-62.85179679000004</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11.27059679000004</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11.52499679000004</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-12.31259679000004</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12.56219679000004</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-12.30439679000004</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-12.44379679000004</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-12.05819679000004</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-24.60529679000004</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24.46319679000004</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-25.01089679000004</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-65.79839679000006</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11.51893626999995</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11.19753626999995</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11.20823626999995</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>14.79081572999995</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>102.08881851</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>130.47271851</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>159.09471851</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>159.09471851</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>148.0901185099999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>150.3620185099999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>152.0560185099999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>152.0160185099999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>123.6882185099999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>114.3883185099999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>114.4122911099999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>110.0722911099999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>103.8488911099999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>94.48549110999993</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>90.14549110999992</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>92.99079440999992</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>92.85079440999992</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>42.06159440999992</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>27.01409440999992</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
